--- a/content/data/document/cancer_drug_name_2024.xlsx
+++ b/content/data/document/cancer_drug_name_2024.xlsx
@@ -10,7 +10,7 @@
     <sheet name="药物名称" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">药物名称!$A$4:$E$219</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">药物名称!$A$4:$E$211</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="348">
   <si>
     <t># 出处</t>
   </si>
@@ -2037,7 +2037,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E219"/>
+  <dimension ref="A1:E211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3628,2115 +3628,1979 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B96" t="s">
         <v>183</v>
       </c>
       <c r="C96" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D96" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E96" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B97" t="s">
         <v>183</v>
       </c>
       <c r="C97" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D97" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E97" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>187</v>
+        <v>30</v>
       </c>
       <c r="B98" t="s">
         <v>183</v>
       </c>
       <c r="C98" t="s">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="D98" t="s">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="E98" t="s">
-        <v>188</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B99" t="s">
         <v>183</v>
       </c>
       <c r="C99" t="s">
-        <v>190</v>
-      </c>
-      <c r="D99" t="s">
-        <v>190</v>
-      </c>
-      <c r="E99" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B100" t="s">
         <v>183</v>
       </c>
       <c r="C100" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D100" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E100" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>30</v>
+        <v>196</v>
       </c>
       <c r="B101" t="s">
         <v>183</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="D101" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="E101" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>30</v>
+        <v>198</v>
       </c>
       <c r="B102" t="s">
         <v>183</v>
       </c>
       <c r="C102" t="s">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="D102" t="s">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="E102" t="s">
-        <v>31</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="B103" t="s">
         <v>183</v>
       </c>
       <c r="C103" t="s">
-        <v>192</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>192</v>
+        <v>17</v>
+      </c>
+      <c r="D103" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B104" t="s">
         <v>183</v>
       </c>
       <c r="C104" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D104" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E104" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B105" t="s">
         <v>183</v>
       </c>
       <c r="C105" t="s">
-        <v>197</v>
-      </c>
-      <c r="D105" t="s">
-        <v>197</v>
-      </c>
-      <c r="E105" t="s">
-        <v>197</v>
+        <v>203</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B106" t="s">
         <v>183</v>
       </c>
       <c r="C106" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D106" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E106" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="B107" t="s">
         <v>183</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="D107" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="E107" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="B108" t="s">
         <v>183</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="D108" t="s">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="E108" t="s">
-        <v>17</v>
+        <v>210</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="B109" t="s">
         <v>183</v>
       </c>
       <c r="C109" t="s">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="D109" t="s">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="E109" t="s">
-        <v>201</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B110" t="s">
         <v>183</v>
       </c>
       <c r="C110" t="s">
-        <v>203</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>203</v>
+        <v>213</v>
+      </c>
+      <c r="D110" t="s">
+        <v>213</v>
+      </c>
+      <c r="E110" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B111" t="s">
         <v>183</v>
       </c>
       <c r="C111" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D111" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="E111" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B112" t="s">
         <v>183</v>
       </c>
       <c r="C112" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D112" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E112" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>207</v>
+        <v>53</v>
       </c>
       <c r="B113" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="C113" t="s">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="D113" t="s">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="E113" t="s">
-        <v>208</v>
+        <v>52</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="B114" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="C114" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="D114" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="E114" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B115" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="C115" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D115" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="E115" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="B116" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="C116" t="s">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="D116" t="s">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="E116" t="s">
-        <v>133</v>
+        <v>225</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="B117" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="C117" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="D117" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="E117" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="B118" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="C118" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="D118" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="E118" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="B119" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="C119" t="s">
-        <v>215</v>
-      </c>
-      <c r="D119" t="s">
-        <v>215</v>
-      </c>
-      <c r="E119" t="s">
-        <v>215</v>
+        <v>229</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="B120" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="C120" t="s">
-        <v>217</v>
-      </c>
-      <c r="D120" t="s">
-        <v>218</v>
-      </c>
-      <c r="E120" t="s">
-        <v>217</v>
+        <v>231</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B121" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="C121" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D121" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="E121" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>220</v>
+        <v>59</v>
       </c>
       <c r="B122" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="C122" t="s">
-        <v>221</v>
+        <v>60</v>
       </c>
       <c r="D122" t="s">
-        <v>221</v>
+        <v>60</v>
       </c>
       <c r="E122" t="s">
-        <v>221</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="B123" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="C123" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="D123" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="E123" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>224</v>
+        <v>153</v>
       </c>
       <c r="B124" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="C124" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="D124" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="E124" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="B125" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="C125" t="s">
-        <v>156</v>
+        <v>237</v>
       </c>
       <c r="D125" t="s">
-        <v>156</v>
+        <v>237</v>
       </c>
       <c r="E125" t="s">
-        <v>156</v>
+        <v>237</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>226</v>
+        <v>100</v>
       </c>
       <c r="B126" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="C126" t="s">
-        <v>227</v>
+        <v>101</v>
       </c>
       <c r="D126" t="s">
-        <v>227</v>
+        <v>101</v>
       </c>
       <c r="E126" t="s">
-        <v>227</v>
+        <v>101</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="B127" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="C127" t="s">
-        <v>229</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>229</v>
+        <v>17</v>
+      </c>
+      <c r="D127" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>230</v>
+        <v>106</v>
       </c>
       <c r="B128" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="C128" t="s">
-        <v>231</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>233</v>
+        <v>107</v>
+      </c>
+      <c r="D128" t="s">
+        <v>107</v>
+      </c>
+      <c r="E128" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="B129" t="s">
         <v>234</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="D129" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="E129" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="B130" t="s">
         <v>234</v>
       </c>
       <c r="C130" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="D130" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="E130" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B131" t="s">
         <v>234</v>
       </c>
       <c r="C131" t="s">
-        <v>233</v>
-      </c>
-      <c r="D131" t="s">
-        <v>233</v>
-      </c>
-      <c r="E131" t="s">
-        <v>233</v>
+        <v>24</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="B132" t="s">
         <v>234</v>
       </c>
       <c r="C132" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="D132" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E132" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B133" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C133" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D133" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E133" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="B134" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C134" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="D134" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="E134" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="B135" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C135" t="s">
-        <v>17</v>
+        <v>244</v>
       </c>
       <c r="D135" t="s">
-        <v>17</v>
+        <v>244</v>
       </c>
       <c r="E135" t="s">
-        <v>17</v>
+        <v>244</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="B136" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C136" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="D136" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="E136" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="B137" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C137" t="s">
-        <v>123</v>
+        <v>221</v>
       </c>
       <c r="D137" t="s">
-        <v>123</v>
+        <v>221</v>
       </c>
       <c r="E137" t="s">
-        <v>123</v>
+        <v>221</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="B138" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C138" t="s">
-        <v>164</v>
+        <v>60</v>
       </c>
       <c r="D138" t="s">
-        <v>164</v>
+        <v>60</v>
       </c>
       <c r="E138" t="s">
-        <v>164</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B139" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C139" t="s">
-        <v>24</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>24</v>
+        <v>233</v>
+      </c>
+      <c r="D139" t="s">
+        <v>233</v>
+      </c>
+      <c r="E139" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="B140" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C140" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="D140" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="E140" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B141" t="s">
         <v>241</v>
       </c>
       <c r="C141" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D141" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E141" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="B142" t="s">
         <v>241</v>
       </c>
       <c r="C142" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D142" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="E142" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B143" t="s">
         <v>241</v>
       </c>
       <c r="C143" t="s">
-        <v>244</v>
-      </c>
-      <c r="D143" t="s">
-        <v>244</v>
-      </c>
-      <c r="E143" t="s">
-        <v>244</v>
+        <v>11</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B144" t="s">
         <v>241</v>
       </c>
       <c r="C144" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D144" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E144" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="B145" t="s">
         <v>241</v>
       </c>
       <c r="C145" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="D145" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="E145" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="B146" t="s">
         <v>241</v>
       </c>
       <c r="C146" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="D146" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="E146" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>235</v>
+        <v>153</v>
       </c>
       <c r="B147" t="s">
         <v>241</v>
       </c>
       <c r="C147" t="s">
-        <v>233</v>
+        <v>154</v>
       </c>
       <c r="D147" t="s">
-        <v>233</v>
+        <v>154</v>
       </c>
       <c r="E147" t="s">
-        <v>233</v>
+        <v>154</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>149</v>
+        <v>236</v>
       </c>
       <c r="B148" t="s">
         <v>241</v>
       </c>
       <c r="C148" t="s">
-        <v>150</v>
+        <v>237</v>
       </c>
       <c r="D148" t="s">
-        <v>150</v>
+        <v>237</v>
       </c>
       <c r="E148" t="s">
-        <v>150</v>
+        <v>237</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>245</v>
+        <v>100</v>
       </c>
       <c r="B149" t="s">
         <v>241</v>
       </c>
       <c r="C149" t="s">
-        <v>246</v>
+        <v>101</v>
       </c>
       <c r="D149" t="s">
-        <v>246</v>
+        <v>101</v>
       </c>
       <c r="E149" t="s">
-        <v>246</v>
+        <v>101</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="B150" t="s">
         <v>241</v>
       </c>
       <c r="C150" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D150" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E150" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B151" t="s">
         <v>241</v>
       </c>
       <c r="C151" t="s">
-        <v>11</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
+      </c>
+      <c r="D151" t="s">
+        <v>251</v>
+      </c>
+      <c r="E151" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B152" t="s">
         <v>241</v>
       </c>
       <c r="C152" t="s">
-        <v>31</v>
-      </c>
-      <c r="D152" t="s">
-        <v>31</v>
-      </c>
-      <c r="E152" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B153" t="s">
         <v>241</v>
       </c>
       <c r="C153" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="D153" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="E153" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>172</v>
+        <v>254</v>
       </c>
       <c r="B154" t="s">
         <v>241</v>
       </c>
       <c r="C154" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="D154" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="E154" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>153</v>
+        <v>255</v>
       </c>
       <c r="B155" t="s">
         <v>241</v>
       </c>
       <c r="C155" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="D155" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="E155" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>236</v>
+        <v>21</v>
       </c>
       <c r="B156" t="s">
         <v>241</v>
       </c>
       <c r="C156" t="s">
-        <v>237</v>
+        <v>22</v>
       </c>
       <c r="D156" t="s">
-        <v>237</v>
+        <v>22</v>
       </c>
       <c r="E156" t="s">
-        <v>237</v>
+        <v>22</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B157" t="s">
         <v>241</v>
       </c>
       <c r="C157" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D157" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="E157" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="B158" t="s">
         <v>241</v>
       </c>
       <c r="C158" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="D158" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="E158" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="B159" t="s">
         <v>241</v>
       </c>
       <c r="C159" t="s">
-        <v>251</v>
+        <v>13</v>
       </c>
       <c r="D159" t="s">
-        <v>251</v>
+        <v>13</v>
       </c>
       <c r="E159" t="s">
-        <v>251</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="B160" t="s">
         <v>241</v>
       </c>
       <c r="C160" t="s">
-        <v>19</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>17</v>
+        <v>166</v>
+      </c>
+      <c r="D160" t="s">
+        <v>166</v>
+      </c>
+      <c r="E160" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B161" t="s">
         <v>241</v>
       </c>
       <c r="C161" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D161" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E161" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="B162" t="s">
         <v>241</v>
       </c>
       <c r="C162" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="D162" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="E162" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>255</v>
+        <v>132</v>
       </c>
       <c r="B163" t="s">
         <v>241</v>
       </c>
       <c r="C163" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="D163" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="E163" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="B164" t="s">
         <v>241</v>
       </c>
       <c r="C164" t="s">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="D164" t="s">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="E164" t="s">
-        <v>22</v>
+        <v>213</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="B165" t="s">
         <v>241</v>
       </c>
       <c r="C165" t="s">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="D165" t="s">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="E165" t="s">
-        <v>125</v>
+        <v>215</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>163</v>
+        <v>258</v>
       </c>
       <c r="B166" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="C166" t="s">
-        <v>164</v>
+        <v>260</v>
       </c>
       <c r="D166" t="s">
-        <v>164</v>
+        <v>260</v>
       </c>
       <c r="E166" t="s">
-        <v>164</v>
+        <v>260</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>126</v>
+        <v>261</v>
       </c>
       <c r="B167" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="C167" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="D167" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="E167" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>165</v>
+        <v>263</v>
       </c>
       <c r="B168" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="C168" t="s">
-        <v>166</v>
+        <v>264</v>
       </c>
       <c r="D168" t="s">
-        <v>166</v>
+        <v>264</v>
       </c>
       <c r="E168" t="s">
-        <v>166</v>
+        <v>264</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B169" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="C169" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="D169" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E169" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B170" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="C170" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D170" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E170" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>132</v>
+        <v>268</v>
       </c>
       <c r="B171" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="C171" t="s">
-        <v>133</v>
+        <v>269</v>
       </c>
       <c r="D171" t="s">
-        <v>133</v>
+        <v>269</v>
       </c>
       <c r="E171" t="s">
-        <v>133</v>
+        <v>269</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="B172" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="C172" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="D172" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="E172" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="B173" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="C173" t="s">
-        <v>215</v>
+        <v>271</v>
       </c>
       <c r="D173" t="s">
-        <v>215</v>
+        <v>271</v>
       </c>
       <c r="E173" t="s">
-        <v>215</v>
+        <v>271</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="B174" t="s">
         <v>259</v>
       </c>
       <c r="C174" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="D174" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E174" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="B175" t="s">
         <v>259</v>
       </c>
       <c r="C175" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D175" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E175" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="B176" t="s">
         <v>259</v>
       </c>
       <c r="C176" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="D176" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="E176" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="B177" t="s">
         <v>259</v>
       </c>
       <c r="C177" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="D177" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="E177" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>59</v>
+        <v>280</v>
       </c>
       <c r="B178" t="s">
         <v>259</v>
       </c>
-      <c r="C178" t="s">
-        <v>60</v>
-      </c>
-      <c r="D178" t="s">
-        <v>60</v>
-      </c>
-      <c r="E178" t="s">
-        <v>60</v>
+      <c r="C178" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="B179" t="s">
         <v>259</v>
       </c>
       <c r="C179" t="s">
-        <v>269</v>
-      </c>
-      <c r="D179" t="s">
-        <v>269</v>
-      </c>
-      <c r="E179" t="s">
-        <v>269</v>
+        <v>283</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>185</v>
+        <v>285</v>
       </c>
       <c r="B180" t="s">
         <v>259</v>
       </c>
       <c r="C180" t="s">
-        <v>186</v>
+        <v>286</v>
       </c>
       <c r="D180" t="s">
-        <v>186</v>
+        <v>286</v>
       </c>
       <c r="E180" t="s">
-        <v>186</v>
+        <v>286</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="B181" t="s">
         <v>259</v>
       </c>
       <c r="C181" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="D181" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E181" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>272</v>
+        <v>172</v>
       </c>
       <c r="B182" t="s">
         <v>259</v>
       </c>
       <c r="C182" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="D182" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="E182" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="B183" t="s">
         <v>259</v>
       </c>
       <c r="C183" t="s">
-        <v>275</v>
-      </c>
-      <c r="D183" t="s">
-        <v>275</v>
-      </c>
-      <c r="E183" t="s">
-        <v>275</v>
+        <v>193</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="B184" t="s">
         <v>259</v>
       </c>
       <c r="C184" t="s">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="D184" t="s">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="E184" t="s">
-        <v>277</v>
+        <v>78</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="B185" t="s">
         <v>259</v>
       </c>
       <c r="C185" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="D185" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E185" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="B186" t="s">
         <v>259</v>
       </c>
-      <c r="C186" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>85</v>
+      <c r="C186" t="s">
+        <v>295</v>
+      </c>
+      <c r="D186" t="s">
+        <v>295</v>
+      </c>
+      <c r="E186" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B187" t="s">
         <v>259</v>
       </c>
       <c r="C187" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B188" t="s">
         <v>259</v>
       </c>
       <c r="C188" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D188" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E188" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="B189" t="s">
         <v>259</v>
       </c>
       <c r="C189" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="D189" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="E189" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>172</v>
+        <v>302</v>
       </c>
       <c r="B190" t="s">
         <v>259</v>
       </c>
       <c r="C190" t="s">
-        <v>173</v>
-      </c>
-      <c r="D190" t="s">
-        <v>173</v>
-      </c>
-      <c r="E190" t="s">
-        <v>173</v>
+        <v>303</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="B191" t="s">
         <v>259</v>
       </c>
       <c r="C191" t="s">
-        <v>193</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>193</v>
+        <v>306</v>
+      </c>
+      <c r="D191" t="s">
+        <v>306</v>
+      </c>
+      <c r="E191" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="B192" t="s">
         <v>259</v>
       </c>
       <c r="C192" t="s">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="D192" t="s">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="E192" t="s">
-        <v>78</v>
+        <v>308</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>292</v>
+        <v>104</v>
       </c>
       <c r="B193" t="s">
         <v>259</v>
       </c>
       <c r="C193" t="s">
-        <v>293</v>
+        <v>105</v>
       </c>
       <c r="D193" t="s">
-        <v>293</v>
+        <v>105</v>
       </c>
       <c r="E193" t="s">
-        <v>293</v>
+        <v>105</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="B194" t="s">
         <v>259</v>
       </c>
       <c r="C194" t="s">
-        <v>295</v>
-      </c>
-      <c r="D194" t="s">
-        <v>295</v>
-      </c>
-      <c r="E194" t="s">
-        <v>295</v>
+        <v>310</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="B195" t="s">
         <v>259</v>
       </c>
       <c r="C195" t="s">
-        <v>297</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>297</v>
+        <v>313</v>
+      </c>
+      <c r="D195" t="s">
+        <v>313</v>
+      </c>
+      <c r="E195" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B196" t="s">
         <v>259</v>
       </c>
       <c r="C196" t="s">
-        <v>290</v>
-      </c>
-      <c r="D196" t="s">
-        <v>290</v>
-      </c>
-      <c r="E196" t="s">
-        <v>290</v>
+        <v>315</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="B197" t="s">
         <v>259</v>
       </c>
       <c r="C197" t="s">
-        <v>301</v>
-      </c>
-      <c r="D197" t="s">
-        <v>301</v>
-      </c>
-      <c r="E197" t="s">
-        <v>301</v>
+        <v>318</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="B198" t="s">
         <v>259</v>
       </c>
       <c r="C198" t="s">
-        <v>303</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>303</v>
+        <v>321</v>
+      </c>
+      <c r="D198" t="s">
+        <v>321</v>
+      </c>
+      <c r="E198" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="B199" t="s">
         <v>259</v>
       </c>
       <c r="C199" t="s">
-        <v>306</v>
-      </c>
-      <c r="D199" t="s">
-        <v>306</v>
-      </c>
-      <c r="E199" t="s">
-        <v>306</v>
+        <v>323</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="B200" t="s">
         <v>259</v>
       </c>
       <c r="C200" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="D200" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="E200" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>104</v>
+        <v>327</v>
       </c>
       <c r="B201" t="s">
         <v>259</v>
       </c>
       <c r="C201" t="s">
-        <v>105</v>
+        <v>328</v>
       </c>
       <c r="D201" t="s">
-        <v>105</v>
+        <v>328</v>
       </c>
       <c r="E201" t="s">
-        <v>105</v>
+        <v>328</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="B202" t="s">
         <v>259</v>
       </c>
       <c r="C202" t="s">
-        <v>310</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>201</v>
+        <v>330</v>
+      </c>
+      <c r="D202" t="s">
+        <v>330</v>
+      </c>
+      <c r="E202" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>312</v>
+        <v>124</v>
       </c>
       <c r="B203" t="s">
         <v>259</v>
       </c>
       <c r="C203" t="s">
-        <v>313</v>
+        <v>125</v>
       </c>
       <c r="D203" t="s">
-        <v>313</v>
+        <v>125</v>
       </c>
       <c r="E203" t="s">
-        <v>313</v>
+        <v>125</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="B204" t="s">
         <v>259</v>
       </c>
       <c r="C204" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E204" s="3" t="s">
-        <v>315</v>
+        <v>333</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B205" t="s">
         <v>259</v>
       </c>
       <c r="C205" t="s">
-        <v>318</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>319</v>
+        <v>335</v>
+      </c>
+      <c r="D205" t="s">
+        <v>335</v>
+      </c>
+      <c r="E205" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>320</v>
+        <v>23</v>
       </c>
       <c r="B206" t="s">
         <v>259</v>
       </c>
       <c r="C206" t="s">
-        <v>321</v>
+        <v>24</v>
       </c>
       <c r="D206" t="s">
-        <v>321</v>
+        <v>24</v>
       </c>
       <c r="E206" t="s">
-        <v>321</v>
+        <v>24</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="B207" t="s">
         <v>259</v>
       </c>
       <c r="C207" t="s">
-        <v>323</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>324</v>
+        <v>337</v>
+      </c>
+      <c r="D207" t="s">
+        <v>337</v>
+      </c>
+      <c r="E207" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="B208" t="s">
         <v>259</v>
       </c>
       <c r="C208" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="D208" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="E208" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="B209" t="s">
         <v>259</v>
       </c>
       <c r="C209" t="s">
-        <v>328</v>
-      </c>
-      <c r="D209" t="s">
-        <v>328</v>
-      </c>
-      <c r="E209" t="s">
-        <v>328</v>
+        <v>341</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>329</v>
+        <v>230</v>
       </c>
       <c r="B210" t="s">
         <v>259</v>
       </c>
       <c r="C210" t="s">
-        <v>330</v>
-      </c>
-      <c r="D210" t="s">
-        <v>330</v>
-      </c>
-      <c r="E210" t="s">
-        <v>330</v>
+        <v>231</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>124</v>
+        <v>344</v>
       </c>
       <c r="B211" t="s">
         <v>259</v>
       </c>
       <c r="C211" t="s">
-        <v>125</v>
-      </c>
-      <c r="D211" t="s">
-        <v>125</v>
-      </c>
-      <c r="E211" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" t="s">
-        <v>331</v>
-      </c>
-      <c r="B212" t="s">
-        <v>259</v>
-      </c>
-      <c r="C212" t="s">
-        <v>332</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" t="s">
-        <v>334</v>
-      </c>
-      <c r="B213" t="s">
-        <v>259</v>
-      </c>
-      <c r="C213" t="s">
-        <v>335</v>
-      </c>
-      <c r="D213" t="s">
-        <v>335</v>
-      </c>
-      <c r="E213" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" t="s">
-        <v>23</v>
-      </c>
-      <c r="B214" t="s">
-        <v>259</v>
-      </c>
-      <c r="C214" t="s">
-        <v>24</v>
-      </c>
-      <c r="D214" t="s">
-        <v>24</v>
-      </c>
-      <c r="E214" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" t="s">
-        <v>336</v>
-      </c>
-      <c r="B215" t="s">
-        <v>259</v>
-      </c>
-      <c r="C215" t="s">
-        <v>337</v>
-      </c>
-      <c r="D215" t="s">
-        <v>337</v>
-      </c>
-      <c r="E215" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" t="s">
-        <v>338</v>
-      </c>
-      <c r="B216" t="s">
-        <v>259</v>
-      </c>
-      <c r="C216" t="s">
-        <v>339</v>
-      </c>
-      <c r="D216" t="s">
-        <v>339</v>
-      </c>
-      <c r="E216" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" t="s">
-        <v>340</v>
-      </c>
-      <c r="B217" t="s">
-        <v>259</v>
-      </c>
-      <c r="C217" t="s">
-        <v>341</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" t="s">
-        <v>230</v>
-      </c>
-      <c r="B218" t="s">
-        <v>259</v>
-      </c>
-      <c r="C218" t="s">
-        <v>231</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" t="s">
-        <v>344</v>
-      </c>
-      <c r="B219" t="s">
-        <v>259</v>
-      </c>
-      <c r="C219" t="s">
         <v>345</v>
       </c>
-      <c r="D219" s="2" t="s">
+      <c r="D211" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E219" s="2" t="s">
+      <c r="E211" s="2" t="s">
         <v>347</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A4:E219" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A5:E219">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A4:E211" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A4:E211">
       <sortCondition ref="B4"/>
     </sortState>
     <extLst/>
